--- a/products.xlsx
+++ b/products.xlsx
@@ -423,6 +423,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>มะละกอ</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
